--- a/biology/Médecine/Fascia_cribriformis/Fascia_cribriformis.xlsx
+++ b/biology/Médecine/Fascia_cribriformis/Fascia_cribriformis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia cribriformis est un feuillet aponévrotique du membre inférieur situé dans la cuisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le fascia cribriformis est constitué par le feuillet superficiel du fascia lata devant le canal fémoral. Il est tendu entre le muscle sartorius, le muscle long adducteur et le ligament inguinal.
 Il est perforé de nombreux orifices donnant passage à des vaisseaux et à des nerfs. Le plus important de ces orifices est le hiatus saphène pour le passage de la veine saphène interne.
